--- a/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.748971046376312</v>
+        <v>0.8278957830500815</v>
       </c>
       <c r="C2">
-        <v>0.3614721840720847</v>
+        <v>0.1147174882927544</v>
       </c>
       <c r="D2">
-        <v>0.03874692770112631</v>
+        <v>0.05954275402786635</v>
       </c>
       <c r="E2">
-        <v>0.2455774181668602</v>
+        <v>0.3384078188942752</v>
       </c>
       <c r="F2">
-        <v>2.113510266889122</v>
+        <v>0.597610770744808</v>
       </c>
       <c r="G2">
-        <v>0.0007902828935247941</v>
+        <v>0.0008071134223359476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4657663611123581</v>
+        <v>0.8466381295875181</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8106445947029783</v>
+        <v>0.5817626277727328</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.702653930199531</v>
+        <v>1.818760142501134</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.507972617243837</v>
+        <v>0.7199498728073763</v>
       </c>
       <c r="C3">
-        <v>0.3139572922883929</v>
+        <v>0.1054672529855196</v>
       </c>
       <c r="D3">
-        <v>0.03907799135471279</v>
+        <v>0.05490692539266462</v>
       </c>
       <c r="E3">
-        <v>0.2129963992452275</v>
+        <v>0.2945980340298959</v>
       </c>
       <c r="F3">
-        <v>1.893971578556673</v>
+        <v>0.567045015656106</v>
       </c>
       <c r="G3">
-        <v>0.0007981191473038773</v>
+        <v>0.0008111530264326669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4016653031055881</v>
+        <v>0.7404209899169416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6979511592858998</v>
+        <v>0.5033099853064726</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.533516868739937</v>
+        <v>1.767379016304091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.361975378378702</v>
+        <v>0.6538167775887587</v>
       </c>
       <c r="C4">
-        <v>0.2850980177965425</v>
+        <v>0.09977790817188037</v>
       </c>
       <c r="D4">
-        <v>0.03932087030751674</v>
+        <v>0.05204635697841553</v>
       </c>
       <c r="E4">
-        <v>0.1934989922969166</v>
+        <v>0.2682209325699958</v>
       </c>
       <c r="F4">
-        <v>1.763099368208174</v>
+        <v>0.5494481387722274</v>
       </c>
       <c r="G4">
-        <v>0.0008030527109928184</v>
+        <v>0.0008137124746559572</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3628063331982361</v>
+        <v>0.6752581035460139</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6299679704544872</v>
+        <v>0.455568725459031</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.432868983126127</v>
+        <v>1.739655832588994</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30290110787945</v>
+        <v>0.6268921772439739</v>
       </c>
       <c r="C5">
-        <v>0.2734010206278583</v>
+        <v>0.09745625991970996</v>
       </c>
       <c r="D5">
-        <v>0.03942884296853322</v>
+        <v>0.05087690928445454</v>
       </c>
       <c r="E5">
-        <v>0.1856646348022224</v>
+        <v>0.2575890907582377</v>
       </c>
       <c r="F5">
-        <v>1.710648382680063</v>
+        <v>0.5425552758308925</v>
       </c>
       <c r="G5">
-        <v>0.0008050954326922488</v>
+        <v>0.0008147757778286132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3470760634711851</v>
+        <v>0.6487068013700252</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6025248741425742</v>
+        <v>0.4362059621036778</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.392573539961489</v>
+        <v>1.729270981675285</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.293115177516597</v>
+        <v>0.6224225631470404</v>
       </c>
       <c r="C6">
-        <v>0.271462135811646</v>
+        <v>0.09707053781151131</v>
       </c>
       <c r="D6">
-        <v>0.03944728886484228</v>
+        <v>0.05068249223860022</v>
       </c>
       <c r="E6">
-        <v>0.1843699913574781</v>
+        <v>0.2558303490756089</v>
       </c>
       <c r="F6">
-        <v>1.701989164509726</v>
+        <v>0.5414270500982283</v>
       </c>
       <c r="G6">
-        <v>0.0008054366163745352</v>
+        <v>0.000814953576676215</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.344469844956194</v>
+        <v>0.6442978653386007</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5979824967293368</v>
+        <v>0.432995917095738</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.385923579304901</v>
+        <v>1.727600311268418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.361177074459988</v>
+        <v>0.6534535758845266</v>
       </c>
       <c r="C7">
-        <v>0.284940031228885</v>
+        <v>0.09974661151390052</v>
       </c>
       <c r="D7">
-        <v>0.03932229123512698</v>
+        <v>0.0520306007849598</v>
       </c>
       <c r="E7">
-        <v>0.1933929068979268</v>
+        <v>0.2680770921989293</v>
       </c>
       <c r="F7">
-        <v>1.762388565317167</v>
+        <v>0.549354074564441</v>
       </c>
       <c r="G7">
-        <v>0.0008030801273484217</v>
+        <v>0.0008137267320591403</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3625937896269065</v>
+        <v>0.6749000244910235</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6295968633655775</v>
+        <v>0.4553072392497555</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.432322740504318</v>
+        <v>1.73951214708751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.665416434294457</v>
+        <v>0.7906384915085312</v>
       </c>
       <c r="C8">
-        <v>0.3450136569357198</v>
+        <v>0.111529532600926</v>
       </c>
       <c r="D8">
-        <v>0.0388522488979568</v>
+        <v>0.05794714010466606</v>
       </c>
       <c r="E8">
-        <v>0.2342276760688904</v>
+        <v>0.3231849181123607</v>
       </c>
       <c r="F8">
-        <v>2.036931595953021</v>
+        <v>0.586818614876357</v>
       </c>
       <c r="G8">
-        <v>0.0007929604758466128</v>
+        <v>0.0008084901127317525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4435477606575731</v>
+        <v>0.8099963985846443</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7715088520485693</v>
+        <v>0.5546133674166427</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.643616607916755</v>
+        <v>1.80021954986907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.281553565958973</v>
+        <v>1.061387221703797</v>
       </c>
       <c r="C9">
-        <v>0.4661191577588966</v>
+        <v>0.1345975957967624</v>
       </c>
       <c r="D9">
-        <v>0.0382937433496906</v>
+        <v>0.06944683902326432</v>
       </c>
       <c r="E9">
-        <v>0.31916896479472</v>
+        <v>0.4360906919775402</v>
       </c>
       <c r="F9">
-        <v>2.611786076577488</v>
+        <v>0.6703607095404607</v>
       </c>
       <c r="G9">
-        <v>0.0007740067812639722</v>
+        <v>0.0007988290315800329</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6072928569114993</v>
+        <v>1.075884069811622</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.061620162902862</v>
+        <v>0.7535213052357079</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.087680232827637</v>
+        <v>1.951982837065799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.752172942478865</v>
+        <v>1.262227650117524</v>
       </c>
       <c r="C10">
-        <v>0.5583772831347176</v>
+        <v>0.1515820838472877</v>
       </c>
       <c r="D10">
-        <v>0.03818345270778067</v>
+        <v>0.07784855590656292</v>
       </c>
       <c r="E10">
-        <v>0.3858650497182552</v>
+        <v>0.5230426596093167</v>
       </c>
       <c r="F10">
-        <v>3.064707255068868</v>
+        <v>0.7390504923409651</v>
       </c>
       <c r="G10">
-        <v>0.0007605035461096655</v>
+        <v>0.0007920721803243281</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.732268198523407</v>
+        <v>1.272626510370742</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.285462876468543</v>
+        <v>0.9033569910915844</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.438785203066345</v>
+        <v>2.086950602113461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.971731962961996</v>
+        <v>1.354222165280191</v>
       </c>
       <c r="C11">
-        <v>0.6013928439840583</v>
+        <v>0.1593313779272307</v>
       </c>
       <c r="D11">
-        <v>0.03821956244414437</v>
+        <v>0.0816643068745222</v>
       </c>
       <c r="E11">
-        <v>0.4174852909744402</v>
+        <v>0.5637245063543119</v>
       </c>
       <c r="F11">
-        <v>3.279546000426564</v>
+        <v>0.7721677993737188</v>
       </c>
       <c r="G11">
-        <v>0.0007544211378918318</v>
+        <v>0.0007890653939344433</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7905598766641617</v>
+        <v>1.362628526726496</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.390527750504432</v>
+        <v>0.9726055590064036</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.605649648813511</v>
+        <v>2.154294523835489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.055811188318444</v>
+        <v>1.389167477083532</v>
       </c>
       <c r="C12">
-        <v>0.6178646189581798</v>
+        <v>0.1622704530850712</v>
       </c>
       <c r="D12">
-        <v>0.03824776549279107</v>
+        <v>0.08310866765764047</v>
       </c>
       <c r="E12">
-        <v>0.4296770225979216</v>
+        <v>0.5793151570481214</v>
       </c>
       <c r="F12">
-        <v>3.362373571637193</v>
+        <v>0.7850026881966841</v>
       </c>
       <c r="G12">
-        <v>0.0007521235780236465</v>
+        <v>0.0007879358100111204</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.812881330684057</v>
+        <v>1.396799671444768</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.430867087999388</v>
+        <v>0.9990100413151808</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.670032607480039</v>
+        <v>2.180727772139477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.037658936387174</v>
+        <v>1.381636225795233</v>
       </c>
       <c r="C13">
-        <v>0.6143084385785755</v>
+        <v>0.1616372450130967</v>
       </c>
       <c r="D13">
-        <v>0.03824100773014649</v>
+        <v>0.08279761925602003</v>
       </c>
       <c r="E13">
-        <v>0.4270410353618388</v>
+        <v>0.5759487962456191</v>
       </c>
       <c r="F13">
-        <v>3.344466068529641</v>
+        <v>0.78222496358093</v>
       </c>
       <c r="G13">
-        <v>0.0007526181956953376</v>
+        <v>0.0007881786950756011</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.808062283503574</v>
+        <v>1.389436044694861</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.422153134629639</v>
+        <v>0.9933148647413077</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.65611052074253</v>
+        <v>2.174992183819569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978629498998089</v>
+        <v>1.357094843250707</v>
       </c>
       <c r="C14">
-        <v>0.6027441239939151</v>
+        <v>0.1595730777344073</v>
       </c>
       <c r="D14">
-        <v>0.03822157814356686</v>
+        <v>0.08178314505099138</v>
       </c>
       <c r="E14">
-        <v>0.4184837351334281</v>
+        <v>0.5650033037235289</v>
       </c>
       <c r="F14">
-        <v>3.286329470976597</v>
+        <v>0.7732176882333164</v>
       </c>
       <c r="G14">
-        <v>0.0007542320199837119</v>
+        <v>0.0007889722852770974</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7923910597302921</v>
+        <v>1.365437914451547</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.393834849456297</v>
+        <v>0.9747740811064034</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.610921481825912</v>
+        <v>2.156450073146175</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.942599094878915</v>
+        <v>1.342077296847208</v>
       </c>
       <c r="C15">
-        <v>0.595685476448125</v>
+        <v>0.1583093529581561</v>
       </c>
       <c r="D15">
-        <v>0.03821163796351712</v>
+        <v>0.08116168443390848</v>
       </c>
       <c r="E15">
-        <v>0.413271596929718</v>
+        <v>0.5583237338090967</v>
       </c>
       <c r="F15">
-        <v>3.25091755145047</v>
+        <v>0.7677395514107701</v>
       </c>
       <c r="G15">
-        <v>0.0007552211840728273</v>
+        <v>0.0007894595382460059</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7828255372300106</v>
+        <v>1.350750529872613</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.376563994481941</v>
+        <v>0.9634417434544318</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.58340288046432</v>
+        <v>2.145216186738708</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.737946729645842</v>
+        <v>1.256229817879614</v>
       </c>
       <c r="C16">
-        <v>0.5555898284486602</v>
+        <v>0.1510762184299494</v>
       </c>
       <c r="D16">
-        <v>0.03818300276794417</v>
+        <v>0.07759908848034769</v>
       </c>
       <c r="E16">
-        <v>0.3838271256497165</v>
+        <v>0.5204086238848333</v>
       </c>
       <c r="F16">
-        <v>3.050861239292288</v>
+        <v>0.7369259356303957</v>
       </c>
       <c r="G16">
-        <v>0.0007609020152158</v>
+        <v>0.0007922699771948803</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7284910195121554</v>
+        <v>1.266756209596622</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.278669033806594</v>
+        <v>0.8988554206674166</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.428037811466638</v>
+        <v>2.082675575939192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.613901229115868</v>
+        <v>1.20373934449853</v>
       </c>
       <c r="C17">
-        <v>0.5312820729905354</v>
+        <v>0.1466456834677814</v>
       </c>
       <c r="D17">
-        <v>0.03818894052870547</v>
+        <v>0.0754121703398738</v>
       </c>
       <c r="E17">
-        <v>0.366114255422346</v>
+        <v>0.4974534790246494</v>
       </c>
       <c r="F17">
-        <v>2.930526534301492</v>
+        <v>0.7185190386592666</v>
       </c>
       <c r="G17">
-        <v>0.0007644004787978739</v>
+        <v>0.0007940108183660591</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6955545153505867</v>
+        <v>1.215368892741026</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.219501731235454</v>
+        <v>0.8595295852034823</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.334668713344072</v>
+        <v>2.045884492782477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.543058482680067</v>
+        <v>1.173606448980252</v>
       </c>
       <c r="C18">
-        <v>0.5173972568142347</v>
+        <v>0.1440994350002285</v>
       </c>
       <c r="D18">
-        <v>0.03820033160729963</v>
+        <v>0.07415370577228941</v>
       </c>
       <c r="E18">
-        <v>0.3560444605499882</v>
+        <v>0.4843548506533608</v>
       </c>
       <c r="F18">
-        <v>2.862127836589991</v>
+        <v>0.7081062707690222</v>
       </c>
       <c r="G18">
-        <v>0.0007664185743815469</v>
+        <v>0.0007950184435179541</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6767430917102288</v>
+        <v>1.18585850271208</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.185769075351416</v>
+        <v>0.8370111414352905</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.2816265408958</v>
+        <v>2.025278015266991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.519154819067467</v>
+        <v>1.163413438864183</v>
       </c>
       <c r="C19">
-        <v>0.5127117391589024</v>
+        <v>0.1432376387060401</v>
       </c>
       <c r="D19">
-        <v>0.03820549904560977</v>
+        <v>0.07372749788277844</v>
       </c>
       <c r="E19">
-        <v>0.3526543461386495</v>
+        <v>0.4799371638147534</v>
       </c>
       <c r="F19">
-        <v>2.839103262175342</v>
+        <v>0.7046099026791808</v>
       </c>
       <c r="G19">
-        <v>0.0007671029591375903</v>
+        <v>0.0007953607145718172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6703955230254763</v>
+        <v>1.175874236645853</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.174396613919143</v>
+        <v>0.8294033531184866</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.263776198375268</v>
+        <v>2.01839406723397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.62705280101892</v>
+        <v>1.209320890394025</v>
       </c>
       <c r="C20">
-        <v>0.5338594833068839</v>
+        <v>0.147117097480276</v>
       </c>
       <c r="D20">
-        <v>0.03818746867908374</v>
+        <v>0.07564503214949525</v>
       </c>
       <c r="E20">
-        <v>0.3679873601106607</v>
+        <v>0.4998861095256473</v>
       </c>
       <c r="F20">
-        <v>2.943250644722355</v>
+        <v>0.7204602590905012</v>
       </c>
       <c r="G20">
-        <v>0.0007640274738456365</v>
+        <v>0.0007938248510203007</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6990466432270779</v>
+        <v>1.220834256293074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.225768667257384</v>
+        <v>0.8637052862643841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.344538432309861</v>
+        <v>2.049743013916753</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.995941146589416</v>
+        <v>1.36430013180717</v>
       </c>
       <c r="C21">
-        <v>0.6061356050336713</v>
+        <v>0.1601792384323915</v>
       </c>
       <c r="D21">
-        <v>0.03822687212403153</v>
+        <v>0.08208113384225157</v>
       </c>
       <c r="E21">
-        <v>0.4209910157503742</v>
+        <v>0.5682130347995624</v>
       </c>
       <c r="F21">
-        <v>3.303363837299685</v>
+        <v>0.7758551514713048</v>
       </c>
       <c r="G21">
-        <v>0.0007537578710122955</v>
+        <v>0.0007887389488070863</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7969870046501697</v>
+        <v>1.372484179856286</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.402136829555204</v>
+        <v>0.98021481994585</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.624160715728891</v>
+        <v>2.161870418043492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.242577781782813</v>
+        <v>1.466232817152445</v>
       </c>
       <c r="C22">
-        <v>0.6544556924117728</v>
+        <v>0.1687435137591535</v>
       </c>
       <c r="D22">
-        <v>0.03833856088742849</v>
+        <v>0.08628427689917828</v>
       </c>
       <c r="E22">
-        <v>0.4569211015519699</v>
+        <v>0.6139611680417403</v>
       </c>
       <c r="F22">
-        <v>3.547420637169409</v>
+        <v>0.8137862041267425</v>
       </c>
       <c r="G22">
-        <v>0.0007470777409488449</v>
+        <v>0.0007854672847078489</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8624633778683446</v>
+        <v>1.472125817430253</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.520680441540918</v>
+        <v>1.057432063318139</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.813970639654727</v>
+        <v>2.240622059777991</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.110380448164165</v>
+        <v>1.411764014059798</v>
       </c>
       <c r="C23">
-        <v>0.6285553243069444</v>
+        <v>0.1641696353952966</v>
       </c>
       <c r="D23">
-        <v>0.03827029167294782</v>
+        <v>0.08404116359822922</v>
       </c>
       <c r="E23">
-        <v>0.437614076145266</v>
+        <v>0.589436311192145</v>
       </c>
       <c r="F23">
-        <v>3.416290673258061</v>
+        <v>0.793374794090056</v>
       </c>
       <c r="G23">
-        <v>0.0007506412386127753</v>
+        <v>0.0007872088626359772</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8273682515364555</v>
+        <v>1.418890739532799</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.457079198840304</v>
+        <v>1.016112823591058</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.711957888758434</v>
+        <v>2.19806342928365</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.621105514193516</v>
+        <v>1.20679733600727</v>
       </c>
       <c r="C24">
-        <v>0.5326939580291992</v>
+        <v>0.1469039684189113</v>
       </c>
       <c r="D24">
-        <v>0.03818810941065465</v>
+        <v>0.07553975901235077</v>
       </c>
       <c r="E24">
-        <v>0.3671401782226269</v>
+        <v>0.4987860119225829</v>
       </c>
       <c r="F24">
-        <v>2.937495649790634</v>
+        <v>0.7195821069404076</v>
       </c>
       <c r="G24">
-        <v>0.0007641960880987733</v>
+        <v>0.0007939089056580744</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6974674683190898</v>
+        <v>1.218363264339843</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.222934509190836</v>
+        <v>0.8618171717939802</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.340074360726007</v>
+        <v>2.047996884025338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.112200800007031</v>
+        <v>0.9878716654458799</v>
       </c>
       <c r="C25">
-        <v>0.432881865858036</v>
+        <v>0.1283553079815363</v>
       </c>
       <c r="D25">
-        <v>0.03839849845953225</v>
+        <v>0.06634533606033699</v>
       </c>
       <c r="E25">
-        <v>0.2955424797878123</v>
+        <v>0.4049253025596187</v>
       </c>
       <c r="F25">
-        <v>2.451564321303266</v>
+        <v>0.6465659758462721</v>
       </c>
       <c r="G25">
-        <v>0.0007790505769690747</v>
+        <v>0.0008013804602262061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5623043991066297</v>
+        <v>1.003771525381126</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9815366672333923</v>
+        <v>0.6991511189876789</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.963719236416807</v>
+        <v>1.90707583154321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8278957830500815</v>
+        <v>0.8308191108363019</v>
       </c>
       <c r="C2">
-        <v>0.1147174882927544</v>
+        <v>0.1365832158970477</v>
       </c>
       <c r="D2">
-        <v>0.05954275402786635</v>
+        <v>0.08193512726865748</v>
       </c>
       <c r="E2">
-        <v>0.3384078188942752</v>
+        <v>0.3873482917892659</v>
       </c>
       <c r="F2">
-        <v>0.597610770744808</v>
+        <v>0.3546045233567412</v>
       </c>
       <c r="G2">
-        <v>0.0008071134223359476</v>
+        <v>0.2519389568457058</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003761211229456052</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2435578616930982</v>
       </c>
       <c r="K2">
-        <v>0.8466381295875181</v>
+        <v>0.210462111708015</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5817626277727328</v>
+        <v>0.9049095482345422</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.818760142501134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5822627363893034</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9927220300804152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7199498728073763</v>
+        <v>0.7289564592879003</v>
       </c>
       <c r="C3">
-        <v>0.1054672529855196</v>
+        <v>0.1237477982760851</v>
       </c>
       <c r="D3">
-        <v>0.05490692539266462</v>
+        <v>0.07267544661833369</v>
       </c>
       <c r="E3">
-        <v>0.2945980340298959</v>
+        <v>0.3426799457532894</v>
       </c>
       <c r="F3">
-        <v>0.567045015656106</v>
+        <v>0.3386510399926195</v>
       </c>
       <c r="G3">
-        <v>0.0008111530264326669</v>
+        <v>0.244511884763412</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.441210109895621E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.244565026479691</v>
       </c>
       <c r="K3">
-        <v>0.7404209899169416</v>
+        <v>0.2148255169091389</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5033099853064726</v>
+        <v>0.7981542502775056</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.767379016304091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5069475966354418</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9788020329360734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6538167775887587</v>
+        <v>0.6662716027239242</v>
       </c>
       <c r="C4">
-        <v>0.09977790817188037</v>
+        <v>0.1158499183521542</v>
       </c>
       <c r="D4">
-        <v>0.05204635697841553</v>
+        <v>0.06696838043838937</v>
       </c>
       <c r="E4">
-        <v>0.2682209325699958</v>
+        <v>0.3152349513764818</v>
       </c>
       <c r="F4">
-        <v>0.5494481387722274</v>
+        <v>0.3294355890691349</v>
       </c>
       <c r="G4">
-        <v>0.0008137124746559572</v>
+        <v>0.2404501330520432</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.057386249143534E-06</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.245510518932349</v>
       </c>
       <c r="K4">
-        <v>0.6752581035460139</v>
+        <v>0.2179054023776015</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.455568725459031</v>
+        <v>0.7324390237966867</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.739655832588994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4607054656708982</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9719895707365254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6268921772439739</v>
+        <v>0.6406877312649044</v>
       </c>
       <c r="C5">
-        <v>0.09745625991970996</v>
+        <v>0.1126267865854373</v>
       </c>
       <c r="D5">
-        <v>0.05087690928445454</v>
+        <v>0.06463693607621224</v>
       </c>
       <c r="E5">
-        <v>0.2575890907582377</v>
+        <v>0.304042961134904</v>
       </c>
       <c r="F5">
-        <v>0.5425552758308925</v>
+        <v>0.3258195014052632</v>
       </c>
       <c r="G5">
-        <v>0.0008147757778286132</v>
+        <v>0.2389144643765704</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.310321575071939E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2459755215243504</v>
       </c>
       <c r="K5">
-        <v>0.6487068013700252</v>
+        <v>0.2192578290245155</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4362059621036778</v>
+        <v>0.7056135838702176</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.729270981675285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4418575952931008</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9696319039924788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6224225631470404</v>
+        <v>0.6364370679764022</v>
       </c>
       <c r="C6">
-        <v>0.09707053781151131</v>
+        <v>0.1120912931718578</v>
       </c>
       <c r="D6">
-        <v>0.05068249223860022</v>
+        <v>0.06424944351184081</v>
       </c>
       <c r="E6">
-        <v>0.2558303490756089</v>
+        <v>0.3021839667406567</v>
       </c>
       <c r="F6">
-        <v>0.5414270500982283</v>
+        <v>0.325227277552095</v>
       </c>
       <c r="G6">
-        <v>0.000814953576676215</v>
+        <v>0.2386665208272944</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.884666237101818E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2460574764277794</v>
       </c>
       <c r="K6">
-        <v>0.6442978653386007</v>
+        <v>0.2194881803389208</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.432995917095738</v>
+        <v>0.701156354739993</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.727600311268418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4387275693578232</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9692651852600704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6534535758845266</v>
+        <v>0.6659267336848416</v>
       </c>
       <c r="C7">
-        <v>0.09974661151390052</v>
+        <v>0.1158064695774925</v>
       </c>
       <c r="D7">
-        <v>0.0520306007849598</v>
+        <v>0.06693696155846141</v>
       </c>
       <c r="E7">
-        <v>0.2680770921989293</v>
+        <v>0.3150840486624205</v>
       </c>
       <c r="F7">
-        <v>0.549354074564441</v>
+        <v>0.3293862658042528</v>
       </c>
       <c r="G7">
-        <v>0.0008137267320591403</v>
+        <v>0.2404289460588345</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.189054860934903E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2455164706787443</v>
       </c>
       <c r="K7">
-        <v>0.6749000244910235</v>
+        <v>0.2179232519461856</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4553072392497555</v>
+        <v>0.7320774376049854</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.73951214708751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4604512976640933</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9719561029374972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7906384915085312</v>
+        <v>0.7957236367219593</v>
       </c>
       <c r="C8">
-        <v>0.111529532600926</v>
+        <v>0.1321607904225317</v>
       </c>
       <c r="D8">
-        <v>0.05794714010466606</v>
+        <v>0.07874665578734152</v>
       </c>
       <c r="E8">
-        <v>0.3231849181123607</v>
+        <v>0.3719484427147179</v>
       </c>
       <c r="F8">
-        <v>0.586818614876357</v>
+        <v>0.348979334283591</v>
       </c>
       <c r="G8">
-        <v>0.0008084901127317525</v>
+        <v>0.249271063194179</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002268867353814041</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.243835684245667</v>
       </c>
       <c r="K8">
-        <v>0.8099963985846443</v>
+        <v>0.2118813451428068</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5546133674166427</v>
+        <v>0.8681324973660196</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.80021954986907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.556291091839455</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9875515718989618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.061387221703797</v>
+        <v>1.049338616267278</v>
       </c>
       <c r="C9">
-        <v>0.1345975957967624</v>
+        <v>0.1641206057592939</v>
       </c>
       <c r="D9">
-        <v>0.06944683902326432</v>
+        <v>0.1017515096762764</v>
       </c>
       <c r="E9">
-        <v>0.4360906919775402</v>
+        <v>0.4834722853789941</v>
       </c>
       <c r="F9">
-        <v>0.6703607095404607</v>
+        <v>0.3923140867835002</v>
       </c>
       <c r="G9">
-        <v>0.0007988290315800329</v>
+        <v>0.2708399849493262</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002052396860973804</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2432544695387193</v>
       </c>
       <c r="K9">
-        <v>1.075884069811622</v>
+        <v>0.2033726814404062</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7535213052357079</v>
+        <v>1.133815418222753</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.951982837065799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7444556454843507</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.032728440277197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.262227650117524</v>
+        <v>1.241489859100682</v>
       </c>
       <c r="C10">
-        <v>0.1515820838472877</v>
+        <v>0.1879858731427504</v>
       </c>
       <c r="D10">
-        <v>0.07784855590656292</v>
+        <v>0.119800856660504</v>
       </c>
       <c r="E10">
-        <v>0.5230426596093167</v>
+        <v>0.5313615501958395</v>
       </c>
       <c r="F10">
-        <v>0.7390504923409651</v>
+        <v>0.4215288543813216</v>
       </c>
       <c r="G10">
-        <v>0.0007920721803243281</v>
+        <v>0.2839753417010584</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004320616323136406</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2417674968538108</v>
       </c>
       <c r="K10">
-        <v>1.272626510370742</v>
+        <v>0.1962134133107405</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9033569910915844</v>
+        <v>1.33442840872857</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.086950602113461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8532030275008822</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.057914692539256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.354222165280191</v>
+        <v>1.383741427707804</v>
       </c>
       <c r="C11">
-        <v>0.1593313779272307</v>
+        <v>0.2026833879789365</v>
       </c>
       <c r="D11">
-        <v>0.0816643068745222</v>
+        <v>0.1391047119627871</v>
       </c>
       <c r="E11">
-        <v>0.5637245063543119</v>
+        <v>0.3002187786934343</v>
       </c>
       <c r="F11">
-        <v>0.7721677993737188</v>
+        <v>0.3839852901402736</v>
       </c>
       <c r="G11">
-        <v>0.0007890653939344433</v>
+        <v>0.2432020577329084</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02214361332543646</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2172620428311092</v>
       </c>
       <c r="K11">
-        <v>1.362628526726496</v>
+        <v>0.1675615521735025</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9726055590064036</v>
+        <v>1.477985896940964</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.154294523835489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6598888019194504</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9203360934349547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389167477083532</v>
+        <v>1.466148815979608</v>
       </c>
       <c r="C12">
-        <v>0.1622704530850712</v>
+        <v>0.210346433781325</v>
       </c>
       <c r="D12">
-        <v>0.08310866765764047</v>
+        <v>0.1523322058781105</v>
       </c>
       <c r="E12">
-        <v>0.5793151570481214</v>
+        <v>0.1552037154038501</v>
       </c>
       <c r="F12">
-        <v>0.7850026881966841</v>
+        <v>0.3470640087028016</v>
       </c>
       <c r="G12">
-        <v>0.0007879358100111204</v>
+        <v>0.2081803985832806</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06015238197668538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1977183745423261</v>
       </c>
       <c r="K12">
-        <v>1.396799671444768</v>
+        <v>0.1467347040122728</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9990100413151808</v>
+        <v>1.559662735271758</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.180727772139477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4967171885481534</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.805226206313975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.381636225795233</v>
+        <v>1.506400613481134</v>
       </c>
       <c r="C13">
-        <v>0.1616372450130967</v>
+        <v>0.2129398385241217</v>
       </c>
       <c r="D13">
-        <v>0.08279761925602003</v>
+        <v>0.161496988134104</v>
       </c>
       <c r="E13">
-        <v>0.5759487962456191</v>
+        <v>0.06751394450848203</v>
       </c>
       <c r="F13">
-        <v>0.78222496358093</v>
+        <v>0.3083078521651714</v>
       </c>
       <c r="G13">
-        <v>0.0007881786950756011</v>
+        <v>0.1753546903996224</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1152289321617701</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.18070580423813</v>
       </c>
       <c r="K13">
-        <v>1.389436044694861</v>
+        <v>0.130456390311215</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9933148647413077</v>
+        <v>1.597564219916705</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.174992183819569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3481120326640763</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6999862813611202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.357094843250707</v>
+        <v>1.515431680634492</v>
       </c>
       <c r="C14">
-        <v>0.1595730777344073</v>
+        <v>0.2124556262169079</v>
       </c>
       <c r="D14">
-        <v>0.08178314505099138</v>
+        <v>0.1660776450324022</v>
       </c>
       <c r="E14">
-        <v>0.5650033037235289</v>
+        <v>0.04002657387842801</v>
       </c>
       <c r="F14">
-        <v>0.7732176882333164</v>
+        <v>0.2806889264860644</v>
       </c>
       <c r="G14">
-        <v>0.0007889722852770974</v>
+        <v>0.1538074407672028</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1641349091655968</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1701137684581155</v>
       </c>
       <c r="K14">
-        <v>1.365437914451547</v>
+        <v>0.121387002048337</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9747740811064034</v>
+        <v>1.604212449806539</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.156450073146175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2546400029438445</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.632069763651856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.342077296847208</v>
+        <v>1.508130031868802</v>
       </c>
       <c r="C15">
-        <v>0.1583093529581561</v>
+        <v>0.2112050252983693</v>
       </c>
       <c r="D15">
-        <v>0.08116168443390848</v>
+        <v>0.1662036206896431</v>
       </c>
       <c r="E15">
-        <v>0.5583237338090967</v>
+        <v>0.03776112867134035</v>
       </c>
       <c r="F15">
-        <v>0.7677395514107701</v>
+        <v>0.2734762544981137</v>
       </c>
       <c r="G15">
-        <v>0.0007894595382460059</v>
+        <v>0.1487583389513816</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1764856943853346</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1679661238801842</v>
       </c>
       <c r="K15">
-        <v>1.350750529872613</v>
+        <v>0.1198929882051623</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9634417434544318</v>
+        <v>1.595992086970483</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.145216186738708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2322669706197438</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6168352339729353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.256229817879614</v>
+        <v>1.41522418273513</v>
       </c>
       <c r="C16">
-        <v>0.1510762184299494</v>
+        <v>0.2001978216879223</v>
       </c>
       <c r="D16">
-        <v>0.07759908848034769</v>
+        <v>0.1561789149236432</v>
       </c>
       <c r="E16">
-        <v>0.5204086238848333</v>
+        <v>0.03775547602836432</v>
       </c>
       <c r="F16">
-        <v>0.7369259356303957</v>
+        <v>0.2686702445130891</v>
       </c>
       <c r="G16">
-        <v>0.0007922699771948803</v>
+        <v>0.1495684448104626</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1630669808222223</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1717774706235105</v>
       </c>
       <c r="K16">
-        <v>1.266756209596622</v>
+        <v>0.1257211544727852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8988554206674166</v>
+        <v>1.499936297175822</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.082675575939192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2207231121300985</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6263441376725751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.20373934449853</v>
+        <v>1.339442941285085</v>
       </c>
       <c r="C17">
-        <v>0.1466456834677814</v>
+        <v>0.1920461581960069</v>
       </c>
       <c r="D17">
-        <v>0.0754121703398738</v>
+        <v>0.1460823951059069</v>
       </c>
       <c r="E17">
-        <v>0.4974534790246494</v>
+        <v>0.046669367528275</v>
       </c>
       <c r="F17">
-        <v>0.7185190386592666</v>
+        <v>0.2796593940201504</v>
       </c>
       <c r="G17">
-        <v>0.0007940108183660591</v>
+        <v>0.1615505320068422</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249771557739194</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1803452819558089</v>
       </c>
       <c r="K17">
-        <v>1.215368892741026</v>
+        <v>0.1350031688352509</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8595295852034823</v>
+        <v>1.423015495067801</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.045884492782477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2586020730698202</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6695716851222784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.173606448980252</v>
+        <v>1.270731747371542</v>
       </c>
       <c r="C18">
-        <v>0.1440994350002285</v>
+        <v>0.1855251836433354</v>
       </c>
       <c r="D18">
-        <v>0.07415370577228941</v>
+        <v>0.1350575680845338</v>
       </c>
       <c r="E18">
-        <v>0.4843548506533608</v>
+        <v>0.09332381063949313</v>
       </c>
       <c r="F18">
-        <v>0.7081062707690222</v>
+        <v>0.3060297806800563</v>
       </c>
       <c r="G18">
-        <v>0.0007950184435179541</v>
+        <v>0.1856245099032847</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07221340236291951</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1944181453392844</v>
       </c>
       <c r="K18">
-        <v>1.18585850271208</v>
+        <v>0.1492173692742522</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8370111414352905</v>
+        <v>1.354750424423798</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.025278015266991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3549931727512927</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7500166106167825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.163413438864183</v>
+        <v>1.213941101598095</v>
       </c>
       <c r="C19">
-        <v>0.1432376387060401</v>
+        <v>0.1809249193738793</v>
       </c>
       <c r="D19">
-        <v>0.07372749788277844</v>
+        <v>0.1244525229473226</v>
       </c>
       <c r="E19">
-        <v>0.4799371638147534</v>
+        <v>0.2108879034655899</v>
       </c>
       <c r="F19">
-        <v>0.7046099026791808</v>
+        <v>0.3440383487414564</v>
       </c>
       <c r="G19">
-        <v>0.0007953607145718172</v>
+        <v>0.2196337034402731</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02752281332984552</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2126886602267604</v>
       </c>
       <c r="K19">
-        <v>1.175874236645853</v>
+        <v>0.1678517288771406</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8294033531184866</v>
+        <v>1.299625911289183</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.01839406723397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.509916446121423</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8603666792690632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.209320890394025</v>
+        <v>1.191278508924739</v>
       </c>
       <c r="C20">
-        <v>0.147117097480276</v>
+        <v>0.1817357692318495</v>
       </c>
       <c r="D20">
-        <v>0.07564503214949525</v>
+        <v>0.1151118418943753</v>
       </c>
       <c r="E20">
-        <v>0.4998861095256473</v>
+        <v>0.5173214744201999</v>
       </c>
       <c r="F20">
-        <v>0.7204602590905012</v>
+        <v>0.4133522693210594</v>
       </c>
       <c r="G20">
-        <v>0.0007938248510203007</v>
+        <v>0.2800676058524516</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003632868563427483</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2419024497439324</v>
       </c>
       <c r="K20">
-        <v>1.220834256293074</v>
+        <v>0.1977896947306022</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8637052862643841</v>
+        <v>1.281990616180707</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.049743013916753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8233957806442618</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.049795968368343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.36430013180717</v>
+        <v>1.329363248144091</v>
       </c>
       <c r="C21">
-        <v>0.1601792384323915</v>
+        <v>0.1994073011765067</v>
       </c>
       <c r="D21">
-        <v>0.08208113384225157</v>
+        <v>0.1270726353344003</v>
       </c>
       <c r="E21">
-        <v>0.5682130347995624</v>
+        <v>0.6072506851932289</v>
       </c>
       <c r="F21">
-        <v>0.7758551514713048</v>
+        <v>0.4463826109167144</v>
       </c>
       <c r="G21">
-        <v>0.0007887389488070863</v>
+        <v>0.3000089619523791</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005853799440614538</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2458636504067471</v>
       </c>
       <c r="K21">
-        <v>1.372484179856286</v>
+        <v>0.1980012787772978</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.98021481994585</v>
+        <v>1.426978088498117</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.161870418043492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9533463857770457</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.100708712369965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.466232817152445</v>
+        <v>1.422748973813782</v>
       </c>
       <c r="C22">
-        <v>0.1687435137591535</v>
+        <v>0.2111738785449262</v>
       </c>
       <c r="D22">
-        <v>0.08628427689917828</v>
+        <v>0.1355022381859783</v>
       </c>
       <c r="E22">
-        <v>0.6139611680417403</v>
+        <v>0.648677567962352</v>
       </c>
       <c r="F22">
-        <v>0.8137862041267425</v>
+        <v>0.4656538444060274</v>
       </c>
       <c r="G22">
-        <v>0.0007854672847078489</v>
+        <v>0.3108157671095171</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007490259067900573</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2473688905365492</v>
       </c>
       <c r="K22">
-        <v>1.472125817430253</v>
+        <v>0.1970059142163407</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.057432063318139</v>
+        <v>1.524710121264945</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.240622059777991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.02323694720824</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.126987017112214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.411764014059798</v>
+        <v>1.372899472351946</v>
       </c>
       <c r="C23">
-        <v>0.1641696353952966</v>
+        <v>0.2048929483665347</v>
       </c>
       <c r="D23">
-        <v>0.08404116359822922</v>
+        <v>0.1310033364820526</v>
       </c>
       <c r="E23">
-        <v>0.589436311192145</v>
+        <v>0.6265546898872074</v>
       </c>
       <c r="F23">
-        <v>0.793374794090056</v>
+        <v>0.4552945375442334</v>
       </c>
       <c r="G23">
-        <v>0.0007872088626359772</v>
+        <v>0.3049838125751663</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006594881187589552</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2465287012091295</v>
       </c>
       <c r="K23">
-        <v>1.418890739532799</v>
+        <v>0.1974909904121631</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.016112823591058</v>
+        <v>1.472542536364841</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.19806342928365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.98591596410715</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.112749231588396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.20679733600727</v>
+        <v>1.184236291005448</v>
       </c>
       <c r="C24">
-        <v>0.1469039684189113</v>
+        <v>0.1811199884894137</v>
       </c>
       <c r="D24">
-        <v>0.07553975901235077</v>
+        <v>0.1139584747034945</v>
       </c>
       <c r="E24">
-        <v>0.4987860119225829</v>
+        <v>0.5430171201802665</v>
       </c>
       <c r="F24">
-        <v>0.7195821069404076</v>
+        <v>0.4176290140168035</v>
       </c>
       <c r="G24">
-        <v>0.0007939089056580744</v>
+        <v>0.2842572179343392</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003668517863709031</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.244134090171606</v>
       </c>
       <c r="K24">
-        <v>1.218363264339843</v>
+        <v>0.2003141987893287</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8618171717939802</v>
+        <v>1.275063309444675</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.047996884025338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8449515309441153</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.063348095753398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9878716654458799</v>
+        <v>0.9807958102137206</v>
       </c>
       <c r="C25">
-        <v>0.1283553079815363</v>
+        <v>0.1554828764015639</v>
       </c>
       <c r="D25">
-        <v>0.06634533606033699</v>
+        <v>0.0955418725634658</v>
       </c>
       <c r="E25">
-        <v>0.4049253025596187</v>
+        <v>0.4532769084639412</v>
       </c>
       <c r="F25">
-        <v>0.6465659758462721</v>
+        <v>0.3800195929289885</v>
       </c>
       <c r="G25">
-        <v>0.0008013804602262061</v>
+        <v>0.2645122698530784</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001395138151421005</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2431036882094517</v>
       </c>
       <c r="K25">
-        <v>1.003771525381126</v>
+        <v>0.2052938468334098</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6991511189876789</v>
+        <v>1.062029062106831</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.90707583154321</v>
+        <v>0.6934964237933343</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.018823347287537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8308191108363019</v>
+        <v>0.8217426670818213</v>
       </c>
       <c r="C2">
-        <v>0.1365832158970477</v>
+        <v>0.1462825564694725</v>
       </c>
       <c r="D2">
-        <v>0.08193512726865748</v>
+        <v>0.08463948069484672</v>
       </c>
       <c r="E2">
-        <v>0.3873482917892659</v>
+        <v>0.3853292701372411</v>
       </c>
       <c r="F2">
-        <v>0.3546045233567412</v>
+        <v>0.3393935363339367</v>
       </c>
       <c r="G2">
-        <v>0.2519389568457058</v>
+        <v>0.2200620819513119</v>
       </c>
       <c r="H2">
-        <v>0.0003761211229456052</v>
+        <v>0.0003822220594511538</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2435578616930982</v>
+        <v>0.2719945518013986</v>
       </c>
       <c r="K2">
-        <v>0.210462111708015</v>
+        <v>0.1958095916258102</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1215543164249411</v>
       </c>
       <c r="M2">
-        <v>0.9049095482345422</v>
+        <v>0.03887579169636446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5822627363893034</v>
+        <v>0.9172144555776924</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9927220300804152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5857440671884504</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9459144339129324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7289564592879003</v>
+        <v>0.7243148524399317</v>
       </c>
       <c r="C3">
-        <v>0.1237477982760851</v>
+        <v>0.1287844222369898</v>
       </c>
       <c r="D3">
-        <v>0.07267544661833369</v>
+        <v>0.07456557089599158</v>
       </c>
       <c r="E3">
-        <v>0.3426799457532894</v>
+        <v>0.3415808322842935</v>
       </c>
       <c r="F3">
-        <v>0.3386510399926195</v>
+        <v>0.3260128888148301</v>
       </c>
       <c r="G3">
-        <v>0.244511884763412</v>
+        <v>0.2152046105947818</v>
       </c>
       <c r="H3">
-        <v>4.441210109895621E-05</v>
+        <v>5.314884126672581E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.244565026479691</v>
+        <v>0.2720780884088398</v>
       </c>
       <c r="K3">
-        <v>0.2148255169091389</v>
+        <v>0.2011208589437885</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1269279907167231</v>
       </c>
       <c r="M3">
-        <v>0.7981542502775056</v>
+        <v>0.03858566462660473</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5069475966354418</v>
+        <v>0.807474288072882</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9788020329360734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5097335529795899</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9385163109742081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6662716027239242</v>
+        <v>0.6642644634276564</v>
       </c>
       <c r="C4">
-        <v>0.1158499183521542</v>
+        <v>0.1181048183400435</v>
       </c>
       <c r="D4">
-        <v>0.06696838043838937</v>
+        <v>0.0683724871023017</v>
       </c>
       <c r="E4">
-        <v>0.3152349513764818</v>
+        <v>0.314689260346988</v>
       </c>
       <c r="F4">
-        <v>0.3294355890691349</v>
+        <v>0.3182673455576861</v>
       </c>
       <c r="G4">
-        <v>0.2404501330520432</v>
+        <v>0.2126969585918204</v>
       </c>
       <c r="H4">
-        <v>2.057386249143534E-06</v>
+        <v>2.622233574722799E-07</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.245510518932349</v>
+        <v>0.2722991344874188</v>
       </c>
       <c r="K4">
-        <v>0.2179054023776015</v>
+        <v>0.2046904891920782</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1304555534024932</v>
       </c>
       <c r="M4">
-        <v>0.7324390237966867</v>
+        <v>0.03891863310896859</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4607054656708982</v>
+        <v>0.7399751951851243</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9719895707365254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4630646134425902</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9353682128627554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6406877312649044</v>
+        <v>0.6397330401040051</v>
       </c>
       <c r="C5">
-        <v>0.1126267865854373</v>
+        <v>0.113768413346051</v>
       </c>
       <c r="D5">
-        <v>0.06463693607621224</v>
+        <v>0.06584649024848943</v>
       </c>
       <c r="E5">
-        <v>0.304042961134904</v>
+        <v>0.3037202134698731</v>
       </c>
       <c r="F5">
-        <v>0.3258195014052632</v>
+        <v>0.3152235229897542</v>
       </c>
       <c r="G5">
-        <v>0.2389144643765704</v>
+        <v>0.2117883542776227</v>
       </c>
       <c r="H5">
-        <v>2.310321575071939E-05</v>
+        <v>1.414897435481066E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2459755215243504</v>
+        <v>0.2724306993376828</v>
       </c>
       <c r="K5">
-        <v>0.2192578290245155</v>
+        <v>0.2062200494328543</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1319504385390324</v>
       </c>
       <c r="M5">
-        <v>0.7056135838702176</v>
+        <v>0.03918101760068815</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4418575952931008</v>
+        <v>0.7124359259431259</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9696319039924788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4440433033010649</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9344210061937446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6364370679764022</v>
+        <v>0.6356558920259943</v>
       </c>
       <c r="C6">
-        <v>0.1120912931718578</v>
+        <v>0.1130492848233047</v>
       </c>
       <c r="D6">
-        <v>0.06424944351184081</v>
+        <v>0.0654269040942097</v>
       </c>
       <c r="E6">
-        <v>0.3021839667406567</v>
+        <v>0.301898090906711</v>
       </c>
       <c r="F6">
-        <v>0.325227277552095</v>
+        <v>0.3147247335211176</v>
       </c>
       <c r="G6">
-        <v>0.2386665208272944</v>
+        <v>0.2116441483261084</v>
       </c>
       <c r="H6">
-        <v>2.884666237101818E-05</v>
+        <v>1.853581405875104E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2460574764277794</v>
+        <v>0.2724550170298556</v>
       </c>
       <c r="K6">
-        <v>0.2194881803389208</v>
+        <v>0.2064784796481849</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1322021290790332</v>
       </c>
       <c r="M6">
-        <v>0.701156354739993</v>
+        <v>0.03923218673904039</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4387275693578232</v>
+        <v>0.7078609815193886</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9692651852600704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4408845200924958</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9342835693379357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6659267336848416</v>
+        <v>0.6640260564296909</v>
       </c>
       <c r="C7">
-        <v>0.1158064695774925</v>
+        <v>0.1178800047769641</v>
       </c>
       <c r="D7">
-        <v>0.06693696155846141</v>
+        <v>0.06847336420293004</v>
       </c>
       <c r="E7">
-        <v>0.3150840486624205</v>
+        <v>0.3145357557788557</v>
       </c>
       <c r="F7">
-        <v>0.3293862658042528</v>
+        <v>0.3175457189400106</v>
       </c>
       <c r="G7">
-        <v>0.2404289460588345</v>
+        <v>0.2147127228291623</v>
       </c>
       <c r="H7">
-        <v>2.189054860934903E-06</v>
+        <v>3.334634226526134E-07</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2455164706787443</v>
+        <v>0.2691297931239589</v>
       </c>
       <c r="K7">
-        <v>0.2179232519461856</v>
+        <v>0.2044012920340759</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1303067873666919</v>
       </c>
       <c r="M7">
-        <v>0.7320774376049854</v>
+        <v>0.03885416059816027</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4604512976640933</v>
+        <v>0.7394198046843456</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9719561029374972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4627701132262771</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9333168335930395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7957236367219593</v>
+        <v>0.7885085808320582</v>
       </c>
       <c r="C8">
-        <v>0.1321607904225317</v>
+        <v>0.13967144053575</v>
       </c>
       <c r="D8">
-        <v>0.07874665578734152</v>
+        <v>0.08162346203278759</v>
       </c>
       <c r="E8">
-        <v>0.3719484427147179</v>
+        <v>0.370235066089208</v>
       </c>
       <c r="F8">
-        <v>0.348979334283591</v>
+        <v>0.3324314938444388</v>
       </c>
       <c r="G8">
-        <v>0.249271063194179</v>
+        <v>0.2250700381513369</v>
       </c>
       <c r="H8">
-        <v>0.0002268867353814041</v>
+        <v>0.0002344768027244815</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.243835684245667</v>
+        <v>0.2617510474092839</v>
       </c>
       <c r="K8">
-        <v>0.2118813451428068</v>
+        <v>0.1965746946689837</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1228721761684319</v>
       </c>
       <c r="M8">
-        <v>0.8681324973660196</v>
+        <v>0.038392686435893</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.556291091839455</v>
+        <v>0.8787858431440725</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9875515718989618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5594038066214893</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9363720663818071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049338616267278</v>
+        <v>1.030607878818842</v>
       </c>
       <c r="C9">
-        <v>0.1641206057592939</v>
+        <v>0.183546254219948</v>
       </c>
       <c r="D9">
-        <v>0.1017515096762764</v>
+        <v>0.1068763892227196</v>
       </c>
       <c r="E9">
-        <v>0.4834722853789941</v>
+        <v>0.4793894999698409</v>
       </c>
       <c r="F9">
-        <v>0.3923140867835002</v>
+        <v>0.3680912896314581</v>
       </c>
       <c r="G9">
-        <v>0.2708399849493262</v>
+        <v>0.2419560712710194</v>
       </c>
       <c r="H9">
-        <v>0.002052396860973804</v>
+        <v>0.001972495418675946</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2432544695387193</v>
+        <v>0.2598336421132856</v>
       </c>
       <c r="K9">
-        <v>0.2033726814404062</v>
+        <v>0.1849236518259474</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.11072183988842</v>
       </c>
       <c r="M9">
-        <v>1.133815418222753</v>
+        <v>0.04186968362827415</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7444556454843507</v>
+        <v>1.151977418035756</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.032728440277197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7492419664323364</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9615253633413232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.241489859100682</v>
+        <v>1.214717042617991</v>
       </c>
       <c r="C10">
-        <v>0.1879858731427504</v>
+        <v>0.2150538363016068</v>
       </c>
       <c r="D10">
-        <v>0.119800856660504</v>
+        <v>0.1274330972505879</v>
       </c>
       <c r="E10">
-        <v>0.5313615501958395</v>
+        <v>0.5256758309977485</v>
       </c>
       <c r="F10">
-        <v>0.4215288543813216</v>
+        <v>0.3878681139902795</v>
       </c>
       <c r="G10">
-        <v>0.2839753417010584</v>
+        <v>0.2643991356207991</v>
       </c>
       <c r="H10">
-        <v>0.004320616323136406</v>
+        <v>0.004095276047836549</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2417674968538108</v>
+        <v>0.2406015650562239</v>
       </c>
       <c r="K10">
-        <v>0.1962134133107405</v>
+        <v>0.1739782047678062</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1014431648066196</v>
       </c>
       <c r="M10">
-        <v>1.33442840872857</v>
+        <v>0.0453754894223124</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8532030275008822</v>
+        <v>1.356817664533395</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.057914692539256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8587489699189419</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.961136795684908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.383741427707804</v>
+        <v>1.357710079020677</v>
       </c>
       <c r="C11">
-        <v>0.2026833879789365</v>
+        <v>0.2271835317986728</v>
       </c>
       <c r="D11">
-        <v>0.1391047119627871</v>
+        <v>0.149022067596249</v>
       </c>
       <c r="E11">
-        <v>0.3002187786934343</v>
+        <v>0.295647797719333</v>
       </c>
       <c r="F11">
-        <v>0.3839852901402736</v>
+        <v>0.3460640569577862</v>
       </c>
       <c r="G11">
-        <v>0.2432020577329084</v>
+        <v>0.2522595185610896</v>
       </c>
       <c r="H11">
-        <v>0.02214361332543646</v>
+        <v>0.02189353510847525</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2172620428311092</v>
+        <v>0.1936609560453775</v>
       </c>
       <c r="K11">
-        <v>0.1675615521735025</v>
+        <v>0.1470868971457939</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09019475237229102</v>
       </c>
       <c r="M11">
-        <v>1.477985896940964</v>
+        <v>0.0377552215286272</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6598888019194504</v>
+        <v>1.497079036985667</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9203360934349547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6639234156176528</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8161868422250649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.466148815979608</v>
+        <v>1.442348209243193</v>
       </c>
       <c r="C12">
-        <v>0.210346433781325</v>
+        <v>0.231477941511713</v>
       </c>
       <c r="D12">
-        <v>0.1523322058781105</v>
+        <v>0.1631460680819146</v>
       </c>
       <c r="E12">
-        <v>0.1552037154038501</v>
+        <v>0.1516879133833555</v>
       </c>
       <c r="F12">
-        <v>0.3470640087028016</v>
+        <v>0.3102281120285539</v>
       </c>
       <c r="G12">
-        <v>0.2081803985832806</v>
+        <v>0.2296613552842715</v>
       </c>
       <c r="H12">
-        <v>0.06015238197668538</v>
+        <v>0.05991629593918901</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1977183745423261</v>
+        <v>0.172563870706405</v>
       </c>
       <c r="K12">
-        <v>0.1467347040122728</v>
+        <v>0.1296336914743375</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08397454103627133</v>
       </c>
       <c r="M12">
-        <v>1.559662735271758</v>
+        <v>0.03135774850425577</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4967171885481534</v>
+        <v>1.575417887314245</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.805226206313975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4996504126907766</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7084040801930485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.506400613481134</v>
+        <v>1.485770050843058</v>
       </c>
       <c r="C13">
-        <v>0.2129398385241217</v>
+        <v>0.2304185262204612</v>
       </c>
       <c r="D13">
-        <v>0.161496988134104</v>
+        <v>0.1716064589233497</v>
       </c>
       <c r="E13">
-        <v>0.06751394450848203</v>
+        <v>0.06502141119745097</v>
       </c>
       <c r="F13">
-        <v>0.3083078521651714</v>
+        <v>0.2776363997909712</v>
       </c>
       <c r="G13">
-        <v>0.1753546903996224</v>
+        <v>0.1938937999854531</v>
       </c>
       <c r="H13">
-        <v>0.1152289321617701</v>
+        <v>0.1150339049091542</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.18070580423813</v>
+        <v>0.1662931954104181</v>
       </c>
       <c r="K13">
-        <v>0.130456390311215</v>
+        <v>0.11805530203182</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0805151602988099</v>
       </c>
       <c r="M13">
-        <v>1.597564219916705</v>
+        <v>0.02584214515202277</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3481120326640763</v>
+        <v>1.6103241434773</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6999862813611202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3501964041699424</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6234607639871967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.515431680634492</v>
+        <v>1.497439183340219</v>
       </c>
       <c r="C14">
-        <v>0.2124556262169079</v>
+        <v>0.2272457486546671</v>
       </c>
       <c r="D14">
-        <v>0.1660776450324022</v>
+        <v>0.1749245173968603</v>
       </c>
       <c r="E14">
-        <v>0.04002657387842801</v>
+        <v>0.03819478467094006</v>
       </c>
       <c r="F14">
-        <v>0.2806889264860644</v>
+        <v>0.2561527333907918</v>
       </c>
       <c r="G14">
-        <v>0.1538074407672028</v>
+        <v>0.1649530238434025</v>
       </c>
       <c r="H14">
-        <v>0.1641349091655968</v>
+        <v>0.1639752496039932</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1701137684581155</v>
+        <v>0.1665382838611293</v>
       </c>
       <c r="K14">
-        <v>0.121387002048337</v>
+        <v>0.1124606740365852</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0791082812013717</v>
       </c>
       <c r="M14">
-        <v>1.604212449806539</v>
+        <v>0.02251521606245888</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2546400029438445</v>
+        <v>1.615015208864776</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.632069763651856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2562230541497961</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5736894786231375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.508130031868802</v>
+        <v>1.490963836760784</v>
       </c>
       <c r="C15">
-        <v>0.2112050252983693</v>
+        <v>0.2252789592341458</v>
       </c>
       <c r="D15">
-        <v>0.1662036206896431</v>
+        <v>0.1744205143694018</v>
       </c>
       <c r="E15">
-        <v>0.03776112867134035</v>
+        <v>0.03611067756251535</v>
       </c>
       <c r="F15">
-        <v>0.2734762544981137</v>
+        <v>0.2512437458125802</v>
       </c>
       <c r="G15">
-        <v>0.1487583389513816</v>
+        <v>0.1560702480300407</v>
       </c>
       <c r="H15">
-        <v>0.1764856943853346</v>
+        <v>0.1763403341034575</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1679661238801842</v>
+        <v>0.1685774369069613</v>
       </c>
       <c r="K15">
-        <v>0.1198929882051623</v>
+        <v>0.1119459112638683</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07911495108908806</v>
       </c>
       <c r="M15">
-        <v>1.595992086970483</v>
+        <v>0.02183324034579037</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2322669706197438</v>
+        <v>1.606405708408516</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6168352339729353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2337415025281757</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5646939195950864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.41522418273513</v>
+        <v>1.399874852710127</v>
       </c>
       <c r="C16">
-        <v>0.2001978216879223</v>
+        <v>0.213490957667517</v>
       </c>
       <c r="D16">
-        <v>0.1561789149236432</v>
+        <v>0.1617918454650606</v>
       </c>
       <c r="E16">
-        <v>0.03775547602836432</v>
+        <v>0.03644656524741752</v>
       </c>
       <c r="F16">
-        <v>0.2686702445130891</v>
+        <v>0.2536092391616549</v>
       </c>
       <c r="G16">
-        <v>0.1495684448104626</v>
+        <v>0.1399462214456761</v>
       </c>
       <c r="H16">
-        <v>0.1630669808222223</v>
+        <v>0.162979640173063</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1717774706235105</v>
+        <v>0.1888074388911605</v>
       </c>
       <c r="K16">
-        <v>0.1257211544727852</v>
+        <v>0.119334244029206</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08244362708201791</v>
       </c>
       <c r="M16">
-        <v>1.499936297175822</v>
+        <v>0.02261627660083398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2207231121300985</v>
+        <v>1.511021826660283</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6263441376725751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2222396962604947</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5912228299305156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.339442941285085</v>
+        <v>1.324267964540979</v>
       </c>
       <c r="C17">
-        <v>0.1920461581960069</v>
+        <v>0.2058592019314318</v>
       </c>
       <c r="D17">
-        <v>0.1460823951059069</v>
+        <v>0.1507378175502083</v>
       </c>
       <c r="E17">
-        <v>0.046669367528275</v>
+        <v>0.04529597961361542</v>
       </c>
       <c r="F17">
-        <v>0.2796593940201504</v>
+        <v>0.2663871345327777</v>
       </c>
       <c r="G17">
-        <v>0.1615505320068422</v>
+        <v>0.1440987833710352</v>
       </c>
       <c r="H17">
-        <v>0.1249771557739194</v>
+        <v>0.1249129729180112</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1803452819558089</v>
+        <v>0.2049200202558694</v>
       </c>
       <c r="K17">
-        <v>0.1350031688352509</v>
+        <v>0.1281287995907281</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08614228370913235</v>
       </c>
       <c r="M17">
-        <v>1.423015495067801</v>
+        <v>0.02479971593734653</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2586020730698202</v>
+        <v>1.435316329716358</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6695716851222784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2604078113400554</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6375224478032209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.270731747371542</v>
+        <v>1.254167563636713</v>
       </c>
       <c r="C18">
-        <v>0.1855251836433354</v>
+        <v>0.2013787930861213</v>
       </c>
       <c r="D18">
-        <v>0.1350575680845338</v>
+        <v>0.1396176496691339</v>
       </c>
       <c r="E18">
-        <v>0.09332381063949313</v>
+        <v>0.09145380944478632</v>
       </c>
       <c r="F18">
-        <v>0.3060297806800563</v>
+        <v>0.2913127781464482</v>
       </c>
       <c r="G18">
-        <v>0.1856245099032847</v>
+        <v>0.1626490388289739</v>
       </c>
       <c r="H18">
-        <v>0.07221340236291951</v>
+        <v>0.07215153289191534</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1944181453392844</v>
+        <v>0.2214869189789681</v>
       </c>
       <c r="K18">
-        <v>0.1492173692742522</v>
+        <v>0.1402504484368077</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09102135664673217</v>
       </c>
       <c r="M18">
-        <v>1.354750424423798</v>
+        <v>0.02871975009618133</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3549931727512927</v>
+        <v>1.369211210233885</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7500166106167825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3574590199191974</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7122035653386973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213941101598095</v>
+        <v>1.194825020154383</v>
       </c>
       <c r="C19">
-        <v>0.1809249193738793</v>
+        <v>0.1999921717648192</v>
       </c>
       <c r="D19">
-        <v>0.1244525229473226</v>
+        <v>0.1293904041155969</v>
       </c>
       <c r="E19">
-        <v>0.2108879034655899</v>
+        <v>0.2080433713715308</v>
       </c>
       <c r="F19">
-        <v>0.3440383487414564</v>
+        <v>0.3256240189802782</v>
       </c>
       <c r="G19">
-        <v>0.2196337034402731</v>
+        <v>0.1917417682599876</v>
       </c>
       <c r="H19">
-        <v>0.02752281332984552</v>
+        <v>0.02744316886386144</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2126886602267604</v>
+        <v>0.2389774185795233</v>
       </c>
       <c r="K19">
-        <v>0.1678517288771406</v>
+        <v>0.15541926123114</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09689435913413647</v>
       </c>
       <c r="M19">
-        <v>1.299625911289183</v>
+        <v>0.03426622300991333</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.509916446121423</v>
+        <v>1.316883269532411</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8603666792690632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5134193958688655</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8101868257183185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.191278508924739</v>
+        <v>1.166314816931447</v>
       </c>
       <c r="C20">
-        <v>0.1817357692318495</v>
+        <v>0.2073933666300292</v>
       </c>
       <c r="D20">
-        <v>0.1151118418943753</v>
+        <v>0.121559245710543</v>
       </c>
       <c r="E20">
-        <v>0.5173214744201999</v>
+        <v>0.5120731325698671</v>
       </c>
       <c r="F20">
-        <v>0.4133522693210594</v>
+        <v>0.3846356476458581</v>
       </c>
       <c r="G20">
-        <v>0.2800676058524516</v>
+        <v>0.250570687702762</v>
       </c>
       <c r="H20">
-        <v>0.003632868563427483</v>
+        <v>0.003458862919158534</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2419024497439324</v>
+        <v>0.2554330678810146</v>
       </c>
       <c r="K20">
-        <v>0.1977896947306022</v>
+        <v>0.1776125214690474</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1040918162351261</v>
       </c>
       <c r="M20">
-        <v>1.281990616180707</v>
+        <v>0.04466079418505764</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8233957806442618</v>
+        <v>1.303920235668244</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.049795968368343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8288848793896406</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9669658615538879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.329363248144091</v>
+        <v>1.299379861054746</v>
       </c>
       <c r="C21">
-        <v>0.1994073011765067</v>
+        <v>0.2283898681693586</v>
       </c>
       <c r="D21">
-        <v>0.1270726353344003</v>
+        <v>0.1383224110350199</v>
       </c>
       <c r="E21">
-        <v>0.6072506851932289</v>
+        <v>0.6003951408454355</v>
       </c>
       <c r="F21">
-        <v>0.4463826109167144</v>
+        <v>0.3963557163900191</v>
       </c>
       <c r="G21">
-        <v>0.3000089619523791</v>
+        <v>0.3192000783022024</v>
       </c>
       <c r="H21">
-        <v>0.005853799440614538</v>
+        <v>0.005481369515208723</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2458636504067471</v>
+        <v>0.199556700773897</v>
       </c>
       <c r="K21">
-        <v>0.1980012787772978</v>
+        <v>0.1683796886086277</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09699115266296232</v>
       </c>
       <c r="M21">
-        <v>1.426978088498117</v>
+        <v>0.04746934386768764</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9533463857770457</v>
+        <v>1.449200253629158</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.100708712369965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9588875260570546</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9565383448568099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.422748973813782</v>
+        <v>1.389803733861129</v>
       </c>
       <c r="C22">
-        <v>0.2111738785449262</v>
+        <v>0.2418301820706006</v>
       </c>
       <c r="D22">
-        <v>0.1355022381859783</v>
+        <v>0.1501996140353583</v>
       </c>
       <c r="E22">
-        <v>0.648677567962352</v>
+        <v>0.6409069862296235</v>
       </c>
       <c r="F22">
-        <v>0.4656538444060274</v>
+        <v>0.4008463141734779</v>
       </c>
       <c r="G22">
-        <v>0.3108157671095171</v>
+        <v>0.3693095150510288</v>
       </c>
       <c r="H22">
-        <v>0.007490259067900573</v>
+        <v>0.006964140551182829</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2473688905365492</v>
+        <v>0.169709930425153</v>
       </c>
       <c r="K22">
-        <v>0.1970059142163407</v>
+        <v>0.1611144666600879</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09220222579397586</v>
       </c>
       <c r="M22">
-        <v>1.524710121264945</v>
+        <v>0.04895547331376804</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.02323694720824</v>
+        <v>1.546653053512443</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.126987017112214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.028614421132374</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.940716073848094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.372899472351946</v>
+        <v>1.341258667486244</v>
       </c>
       <c r="C23">
-        <v>0.2048929483665347</v>
+        <v>0.2351286657701337</v>
       </c>
       <c r="D23">
-        <v>0.1310033364820526</v>
+        <v>0.1434548497463766</v>
       </c>
       <c r="E23">
-        <v>0.6265546898872074</v>
+        <v>0.6192651823153739</v>
       </c>
       <c r="F23">
-        <v>0.4552945375442334</v>
+        <v>0.4001661983702007</v>
       </c>
       <c r="G23">
-        <v>0.3049838125751663</v>
+        <v>0.3357349987119136</v>
       </c>
       <c r="H23">
-        <v>0.006594881187589552</v>
+        <v>0.0061589441617107</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2465287012091295</v>
+        <v>0.1892041134027025</v>
       </c>
       <c r="K23">
-        <v>0.1974909904121631</v>
+        <v>0.1656774422283824</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09494896631357896</v>
       </c>
       <c r="M23">
-        <v>1.472542536364841</v>
+        <v>0.04845306120581228</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.98591596410715</v>
+        <v>1.495124337673275</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.112749231588396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9914951227022755</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9541209765496745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.184236291005448</v>
+        <v>1.159071342337796</v>
       </c>
       <c r="C24">
-        <v>0.1811199884894137</v>
+        <v>0.2070668907775115</v>
       </c>
       <c r="D24">
-        <v>0.1139584747034945</v>
+        <v>0.1203984551865744</v>
       </c>
       <c r="E24">
-        <v>0.5430171201802665</v>
+        <v>0.5376175805662342</v>
       </c>
       <c r="F24">
-        <v>0.4176290140168035</v>
+        <v>0.3885698390990555</v>
       </c>
       <c r="G24">
-        <v>0.2842572179343392</v>
+        <v>0.2538842282241305</v>
       </c>
       <c r="H24">
-        <v>0.003668517863709031</v>
+        <v>0.003490689108006761</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.244134090171606</v>
+        <v>0.2579149493720081</v>
       </c>
       <c r="K24">
-        <v>0.2003141987893287</v>
+        <v>0.1797071453420074</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1049240274766881</v>
       </c>
       <c r="M24">
-        <v>1.275063309444675</v>
+        <v>0.0453936944813389</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8449515309441153</v>
+        <v>1.297235224613331</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.063348095753398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8505811113579611</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9792182687493352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9807958102137206</v>
+        <v>0.9651321128905863</v>
       </c>
       <c r="C25">
-        <v>0.1554828764015639</v>
+        <v>0.1718623359411708</v>
       </c>
       <c r="D25">
-        <v>0.0955418725634658</v>
+        <v>0.09984717967132895</v>
       </c>
       <c r="E25">
-        <v>0.4532769084639412</v>
+        <v>0.4498523362656286</v>
       </c>
       <c r="F25">
-        <v>0.3800195929289885</v>
+        <v>0.3589370872760398</v>
       </c>
       <c r="G25">
-        <v>0.2645122698530784</v>
+        <v>0.2339788729133403</v>
       </c>
       <c r="H25">
-        <v>0.001395138151421005</v>
+        <v>0.001353497785873348</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2431036882094517</v>
+        <v>0.2644640528364235</v>
       </c>
       <c r="K25">
-        <v>0.2052938468334098</v>
+        <v>0.1881991320997898</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.113990226745587</v>
       </c>
       <c r="M25">
-        <v>1.062029062106831</v>
+        <v>0.04061558719719116</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6934964237933343</v>
+        <v>1.078392018214487</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.018823347287537</v>
+        <v>0.6978923375106447</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9561996332092946</v>
       </c>
     </row>
   </sheetData>
